--- a/Weekly Report.xlsx
+++ b/Weekly Report.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akribis-PC073\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akribis-PC073\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7540" tabRatio="720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9630" windowHeight="4540" tabRatio="720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'[1]#REF!'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -8250,10 +8249,79 @@
     <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8273,75 +8341,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -8735,8 +8734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -8936,7 +8935,7 @@
       <c r="J11" s="64"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="128" t="s">
         <v>882</v>
       </c>
       <c r="B12" s="70" t="s">
@@ -8948,10 +8947,10 @@
       <c r="D12" s="70" t="s">
         <v>885</v>
       </c>
-      <c r="E12" s="116" t="s">
+      <c r="E12" s="108" t="s">
         <v>884</v>
       </c>
-      <c r="F12" s="116" t="s">
+      <c r="F12" s="108" t="s">
         <v>884</v>
       </c>
       <c r="G12" s="74"/>
@@ -8960,14 +8959,14 @@
       <c r="J12" s="64"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="109"/>
-      <c r="B13" s="116" t="s">
+      <c r="A13" s="129"/>
+      <c r="B13" s="108" t="s">
         <v>883</v>
       </c>
-      <c r="C13" s="116" t="s">
+      <c r="C13" s="108" t="s">
         <v>883</v>
       </c>
-      <c r="D13" s="116" t="s">
+      <c r="D13" s="108" t="s">
         <v>883</v>
       </c>
       <c r="E13" s="104"/>
@@ -8978,7 +8977,7 @@
       <c r="J13" s="64"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="109"/>
+      <c r="A14" s="129"/>
       <c r="B14" s="105"/>
       <c r="C14" s="104"/>
       <c r="D14" s="106"/>
@@ -8990,8 +8989,10 @@
       <c r="J14" s="64"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="109"/>
-      <c r="B15" s="104"/>
+      <c r="A15" s="129"/>
+      <c r="B15" s="104">
+        <v>12222222222</v>
+      </c>
       <c r="C15" s="107"/>
       <c r="D15" s="106"/>
       <c r="E15" s="106"/>
@@ -9014,223 +9015,223 @@
       <c r="J16" s="64"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="117"/>
-      <c r="B17" s="118"/>
-      <c r="C17" s="118"/>
-      <c r="D17" s="118"/>
-      <c r="E17" s="118"/>
-      <c r="F17" s="118"/>
+      <c r="A17" s="130"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
       <c r="G17" s="104"/>
       <c r="H17" s="104"/>
-      <c r="I17" s="119"/>
+      <c r="I17" s="110"/>
       <c r="J17" s="64"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="120"/>
-      <c r="B18" s="118"/>
-      <c r="C18" s="119"/>
-      <c r="D18" s="121"/>
-      <c r="E18" s="119"/>
+      <c r="A18" s="131"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="110"/>
       <c r="F18" s="104"/>
       <c r="G18" s="104"/>
       <c r="H18" s="104"/>
-      <c r="I18" s="119"/>
+      <c r="I18" s="110"/>
       <c r="J18" s="64"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="120"/>
-      <c r="B19" s="118"/>
-      <c r="C19" s="118"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="123"/>
+      <c r="A19" s="131"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="113"/>
       <c r="G19" s="104"/>
       <c r="H19" s="104"/>
-      <c r="I19" s="119"/>
+      <c r="I19" s="110"/>
       <c r="J19" s="64"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="124"/>
-      <c r="B20" s="118"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="119"/>
+      <c r="A20" s="132"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="110"/>
       <c r="G20" s="104"/>
       <c r="H20" s="104"/>
-      <c r="I20" s="119"/>
+      <c r="I20" s="110"/>
       <c r="J20" s="64"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="117"/>
+      <c r="A21" s="130"/>
       <c r="B21" s="105"/>
-      <c r="C21" s="118"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="109"/>
       <c r="G21" s="104"/>
       <c r="H21" s="104"/>
-      <c r="I21" s="119"/>
+      <c r="I21" s="110"/>
       <c r="J21" s="64"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="120"/>
-      <c r="B22" s="118"/>
+      <c r="A22" s="131"/>
+      <c r="B22" s="109"/>
       <c r="C22" s="105"/>
       <c r="D22" s="105"/>
       <c r="E22" s="105"/>
       <c r="F22" s="105"/>
       <c r="G22" s="104"/>
       <c r="H22" s="104"/>
-      <c r="I22" s="119"/>
+      <c r="I22" s="110"/>
       <c r="J22" s="64"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="125"/>
-      <c r="B23" s="118"/>
+      <c r="A23" s="114"/>
+      <c r="B23" s="109"/>
       <c r="C23" s="105"/>
       <c r="D23" s="105"/>
       <c r="E23" s="105"/>
       <c r="F23" s="104"/>
       <c r="G23" s="104"/>
       <c r="H23" s="104"/>
-      <c r="I23" s="119"/>
+      <c r="I23" s="110"/>
       <c r="J23" s="64"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="126"/>
-      <c r="B24" s="127"/>
-      <c r="C24" s="127"/>
-      <c r="D24" s="127"/>
-      <c r="E24" s="127"/>
-      <c r="F24" s="127"/>
+      <c r="A24" s="125"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="115"/>
       <c r="G24" s="107"/>
       <c r="H24" s="107"/>
-      <c r="I24" s="119"/>
+      <c r="I24" s="110"/>
       <c r="J24" s="64"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="128"/>
-      <c r="B25" s="127"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="127"/>
-      <c r="E25" s="127"/>
+      <c r="A25" s="127"/>
+      <c r="B25" s="115"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
       <c r="F25" s="104"/>
       <c r="G25" s="107"/>
       <c r="H25" s="107"/>
-      <c r="I25" s="119"/>
+      <c r="I25" s="110"/>
       <c r="J25" s="64"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="126"/>
-      <c r="B26" s="129"/>
-      <c r="C26" s="129"/>
+      <c r="A26" s="125"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="116"/>
       <c r="D26" s="105"/>
       <c r="E26" s="105"/>
       <c r="F26" s="105"/>
       <c r="G26" s="107"/>
       <c r="H26" s="107"/>
-      <c r="I26" s="119"/>
+      <c r="I26" s="110"/>
       <c r="J26" s="64"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="128"/>
-      <c r="B27" s="130"/>
-      <c r="C27" s="129"/>
+      <c r="A27" s="127"/>
+      <c r="B27" s="117"/>
+      <c r="C27" s="116"/>
       <c r="D27" s="107"/>
       <c r="E27" s="107"/>
       <c r="F27" s="107"/>
       <c r="G27" s="107"/>
       <c r="H27" s="107"/>
-      <c r="I27" s="119"/>
+      <c r="I27" s="110"/>
       <c r="J27" s="64"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="131"/>
-      <c r="B28" s="130"/>
-      <c r="C28" s="129"/>
+      <c r="A28" s="118"/>
+      <c r="B28" s="117"/>
+      <c r="C28" s="116"/>
       <c r="D28" s="107"/>
       <c r="E28" s="107"/>
       <c r="F28" s="107"/>
       <c r="G28" s="107"/>
       <c r="H28" s="107"/>
-      <c r="I28" s="119"/>
+      <c r="I28" s="110"/>
       <c r="J28" s="64"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="131"/>
-      <c r="B29" s="130"/>
-      <c r="C29" s="129"/>
+      <c r="A29" s="118"/>
+      <c r="B29" s="117"/>
+      <c r="C29" s="116"/>
       <c r="D29" s="107"/>
       <c r="E29" s="107"/>
       <c r="F29" s="104"/>
       <c r="G29" s="107"/>
       <c r="H29" s="107"/>
-      <c r="I29" s="119"/>
+      <c r="I29" s="110"/>
       <c r="J29" s="64"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="126"/>
-      <c r="B30" s="132"/>
-      <c r="C30" s="132"/>
-      <c r="D30" s="132"/>
-      <c r="E30" s="132"/>
-      <c r="F30" s="132"/>
+      <c r="A30" s="125"/>
+      <c r="B30" s="119"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="119"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="119"/>
       <c r="G30" s="107"/>
       <c r="H30" s="107"/>
-      <c r="I30" s="119"/>
+      <c r="I30" s="110"/>
       <c r="J30" s="64"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="133"/>
-      <c r="B31" s="132"/>
-      <c r="C31" s="132"/>
-      <c r="D31" s="132"/>
-      <c r="E31" s="132"/>
-      <c r="F31" s="132"/>
+      <c r="A31" s="126"/>
+      <c r="B31" s="119"/>
+      <c r="C31" s="119"/>
+      <c r="D31" s="119"/>
+      <c r="E31" s="119"/>
+      <c r="F31" s="119"/>
       <c r="G31" s="107"/>
       <c r="H31" s="107"/>
-      <c r="I31" s="119"/>
+      <c r="I31" s="110"/>
       <c r="J31" s="64"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="128"/>
-      <c r="B32" s="130"/>
-      <c r="C32" s="134"/>
-      <c r="D32" s="135"/>
+      <c r="A32" s="127"/>
+      <c r="B32" s="117"/>
+      <c r="C32" s="120"/>
+      <c r="D32" s="121"/>
       <c r="E32" s="107"/>
       <c r="F32" s="104"/>
       <c r="G32" s="107"/>
       <c r="H32" s="107"/>
-      <c r="I32" s="119"/>
+      <c r="I32" s="110"/>
       <c r="J32" s="64"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="136"/>
-      <c r="B33" s="130"/>
-      <c r="C33" s="134"/>
-      <c r="D33" s="135"/>
+      <c r="A33" s="122"/>
+      <c r="B33" s="117"/>
+      <c r="C33" s="120"/>
+      <c r="D33" s="121"/>
       <c r="E33" s="107"/>
-      <c r="F33" s="137"/>
+      <c r="F33" s="123"/>
       <c r="G33" s="107"/>
       <c r="H33" s="107"/>
-      <c r="I33" s="119"/>
+      <c r="I33" s="110"/>
       <c r="J33" s="64"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="118"/>
-      <c r="B34" s="138"/>
-      <c r="C34" s="138"/>
-      <c r="D34" s="138"/>
-      <c r="E34" s="138"/>
-      <c r="F34" s="138"/>
-      <c r="G34" s="138"/>
+      <c r="A34" s="109"/>
+      <c r="B34" s="124"/>
+      <c r="C34" s="124"/>
+      <c r="D34" s="124"/>
+      <c r="E34" s="124"/>
+      <c r="F34" s="124"/>
+      <c r="G34" s="124"/>
       <c r="H34" s="104"/>
-      <c r="I34" s="119"/>
+      <c r="I34" s="110"/>
       <c r="J34" s="64"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="118"/>
+      <c r="A35" s="109"/>
       <c r="B35" s="101"/>
       <c r="C35" s="74"/>
       <c r="D35" s="74"/>
@@ -11701,7 +11702,7 @@
       <c r="H19" s="38"/>
     </row>
     <row r="20" spans="1:8" ht="188.5">
-      <c r="A20" s="112" t="s">
+      <c r="A20" s="135" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="41" t="s">
@@ -11723,7 +11724,7 @@
       <c r="H20" s="38"/>
     </row>
     <row r="21" spans="1:8" ht="43.5">
-      <c r="A21" s="113"/>
+      <c r="A21" s="136"/>
       <c r="B21" s="44"/>
       <c r="C21" s="50" t="s">
         <v>267</v>
@@ -11951,7 +11952,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="174">
-      <c r="A35" s="114" t="s">
+      <c r="A35" s="137" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="41" t="s">
@@ -11973,7 +11974,7 @@
       <c r="H35" s="38"/>
     </row>
     <row r="36" spans="1:8" ht="46.5" customHeight="1">
-      <c r="A36" s="115"/>
+      <c r="A36" s="138"/>
       <c r="B36" s="53" t="s">
         <v>285</v>
       </c>
@@ -12031,7 +12032,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="188.5">
-      <c r="A40" s="114" t="s">
+      <c r="A40" s="137" t="s">
         <v>31</v>
       </c>
       <c r="B40" s="41" t="s">
@@ -12053,7 +12054,7 @@
       <c r="H40" s="38"/>
     </row>
     <row r="41" spans="1:8" ht="46.5" customHeight="1">
-      <c r="A41" s="115"/>
+      <c r="A41" s="138"/>
       <c r="B41" s="53" t="s">
         <v>285</v>
       </c>
@@ -12245,7 +12246,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" ht="282" customHeight="1">
-      <c r="A53" s="114" t="s">
+      <c r="A53" s="137" t="s">
         <v>31</v>
       </c>
       <c r="B53" s="41" t="s">
@@ -12267,7 +12268,7 @@
       <c r="H53" s="36"/>
     </row>
     <row r="54" spans="1:8" ht="79.5" customHeight="1">
-      <c r="A54" s="115"/>
+      <c r="A54" s="138"/>
       <c r="B54" s="53" t="s">
         <v>285</v>
       </c>
@@ -12325,7 +12326,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" ht="135" customHeight="1">
-      <c r="A58" s="114" t="s">
+      <c r="A58" s="137" t="s">
         <v>31</v>
       </c>
       <c r="B58" s="41" t="s">
@@ -12347,7 +12348,7 @@
       <c r="H58" s="36"/>
     </row>
     <row r="59" spans="1:8" ht="36" customHeight="1">
-      <c r="A59" s="115"/>
+      <c r="A59" s="138"/>
       <c r="B59" s="53" t="s">
         <v>285</v>
       </c>
@@ -12653,7 +12654,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" ht="299.25" customHeight="1">
-      <c r="A75" s="110" t="s">
+      <c r="A75" s="133" t="s">
         <v>31</v>
       </c>
       <c r="B75" s="41" t="s">
@@ -12675,7 +12676,7 @@
       <c r="H75" s="36"/>
     </row>
     <row r="76" spans="1:8" ht="45.75" customHeight="1">
-      <c r="A76" s="111"/>
+      <c r="A76" s="134"/>
       <c r="B76" s="53" t="s">
         <v>285</v>
       </c>
